--- a/Docs/dictionary.xlsx
+++ b/Docs/dictionary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Furnace</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Plate(1,0), Servo(1,1)</t>
+  </si>
+  <si>
+    <t>Storage</t>
   </si>
 </sst>
 </file>
@@ -459,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R10"/>
+  <dimension ref="B3:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,6 +607,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="11" spans="2:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
